--- a/docs/test-reports/phase1/Phase1_TestResult.xlsx
+++ b/docs/test-reports/phase1/Phase1_TestResult.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Phase 1 Test Result" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,6 +398,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Phase 1 テストサマリー</v>
+      </c>
+      <c r="B1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>実行日</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2026-01-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>実行者</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Antigravity (QA Agent)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>カテゴリ</v>
+      </c>
+      <c r="B5" t="str">
+        <v>結果</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>A-01 正常ログイン</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>A-02 ログイン失敗</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>A-03 ログアウト</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>A-04 アクセス制限</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>1-1-4 セッション維持</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>1-2-1 管理者アクセス</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>1-2-2 一般ユーザー制限</v>
+      </c>
+      <c r="B12" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>【総合判定】</v>
+      </c>
+      <c r="B14" t="str">
+        <v>PASS</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B14"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
